--- a/Excel/09-div-22q2.xlsx
+++ b/Excel/09-div-22q2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="304" documentId="11_23F921ED371B0CAC4075EC96D732409A5594B10C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0437F93-556E-42B3-A564-9D2BC825858B}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="11_23F921ED371B0CAC4075EC96D732409A5594B10C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A43AFA-F06F-4F8B-9F23-BF2751E10BFC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="x_date" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -61,82 +61,82 @@
     <t>aq_eps</t>
   </si>
   <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>CPNREIT</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>DIF</t>
+  </si>
+  <si>
+    <t>GVREIT</t>
+  </si>
+  <si>
+    <t>IVL</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>JASIF</t>
+  </si>
+  <si>
+    <t>KCE</t>
+  </si>
+  <si>
+    <t>MAKRO</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>PTTEP</t>
+  </si>
+  <si>
+    <t>PTTGC</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
     <t>SCC</t>
   </si>
   <si>
-    <t>PTTEP</t>
-  </si>
-  <si>
-    <t>DIF</t>
-  </si>
-  <si>
-    <t>CPNREIT</t>
-  </si>
-  <si>
-    <t>RCL</t>
+    <t>SENA</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>SYNEX</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>VNG</t>
   </si>
   <si>
     <t>WHAIR</t>
   </si>
   <si>
     <t>WHART</t>
-  </si>
-  <si>
-    <t>JASIF</t>
-  </si>
-  <si>
-    <t>VNG</t>
-  </si>
-  <si>
-    <t>DCC</t>
-  </si>
-  <si>
-    <t>2021-08-09</t>
-  </si>
-  <si>
-    <t>KCE</t>
-  </si>
-  <si>
-    <t>MAKRO</t>
-  </si>
-  <si>
-    <t>SYNEX</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>2021-08-10</t>
-  </si>
-  <si>
-    <t>ASP</t>
-  </si>
-  <si>
-    <t>TMT</t>
-  </si>
-  <si>
-    <t>SENA</t>
-  </si>
-  <si>
-    <t>GVREIT</t>
-  </si>
-  <si>
-    <t>ORI</t>
-  </si>
-  <si>
-    <t>IVL</t>
-  </si>
-  <si>
-    <t>BCH</t>
-  </si>
-  <si>
-    <t>PTTGC</t>
-  </si>
-  <si>
-    <t>PTT</t>
   </si>
 </sst>
 </file>
@@ -278,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,9 +318,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,26 +353,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,26 +388,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,875 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J25" sqref="A1:J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="14"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="13">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7">
-        <v>900</v>
-      </c>
-      <c r="D2" s="9">
-        <f>B2*C2</f>
-        <v>5400</v>
-      </c>
-      <c r="E2" s="17">
-        <f>D2*0.9</f>
-        <v>4860</v>
-      </c>
-      <c r="F2" s="10">
-        <v>44769</v>
-      </c>
-      <c r="G2" s="10">
-        <v>44783</v>
-      </c>
-      <c r="H2" s="10">
-        <v>44799</v>
-      </c>
-      <c r="I2" s="11">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="J2" s="11">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="15">
-        <v>4.25</v>
-      </c>
-      <c r="C3" s="7">
-        <v>600</v>
-      </c>
-      <c r="D3" s="9">
-        <f>B3*C3</f>
-        <v>2550</v>
-      </c>
-      <c r="E3" s="17">
-        <f>D3*0.9</f>
-        <v>2295</v>
-      </c>
-      <c r="F3" s="10">
-        <v>44774</v>
-      </c>
-      <c r="G3" s="10">
-        <v>44788</v>
-      </c>
-      <c r="H3" s="10">
-        <v>44799</v>
-      </c>
-      <c r="I3" s="11">
-        <v>5.28</v>
-      </c>
-      <c r="J3" s="11">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="C4" s="7">
-        <v>40000</v>
-      </c>
-      <c r="D4" s="9">
-        <f>B4*C4</f>
-        <v>10400</v>
-      </c>
-      <c r="E4" s="17">
-        <f>D4</f>
-        <v>10400</v>
-      </c>
-      <c r="F4" s="10">
-        <v>44784</v>
-      </c>
-      <c r="G4" s="10">
-        <v>44789</v>
-      </c>
-      <c r="H4" s="10">
-        <v>44809</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.27679999999999999</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.55500000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="9">
-        <f>B5*C5</f>
-        <v>1400.0000000000002</v>
-      </c>
-      <c r="E5" s="17">
-        <f>D5*0.9</f>
-        <v>1260.0000000000002</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44774</v>
-      </c>
-      <c r="G5" s="10">
-        <v>44790</v>
-      </c>
-      <c r="H5" s="10">
-        <v>44806</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="15">
-        <v>1.75</v>
-      </c>
-      <c r="C6" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D6" s="9">
-        <f>B6*C6</f>
-        <v>26250</v>
-      </c>
-      <c r="E6" s="17">
-        <f>D6*0.9</f>
-        <v>23625</v>
-      </c>
-      <c r="F6" s="10">
-        <v>44778</v>
-      </c>
-      <c r="G6" s="10">
-        <v>44791</v>
-      </c>
-      <c r="H6" s="10">
-        <v>44806</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3.85</v>
-      </c>
-      <c r="J6" s="5">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="C7" s="7">
-        <v>40000</v>
-      </c>
-      <c r="D7" s="9">
-        <f>B7*C7</f>
-        <v>6223.9999999999991</v>
-      </c>
-      <c r="E7" s="17">
-        <f>D7*0.9</f>
-        <v>5601.5999999999995</v>
-      </c>
-      <c r="F7" s="10">
-        <v>44781</v>
-      </c>
-      <c r="G7" s="10">
-        <v>44791</v>
-      </c>
-      <c r="H7" s="10">
-        <v>44823</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.20030000000000001</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.192</v>
-      </c>
-      <c r="C8" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D8" s="9">
-        <f>B8*C8</f>
-        <v>5760</v>
-      </c>
-      <c r="E8" s="17">
-        <f>D8*0.9</f>
-        <v>5184</v>
-      </c>
-      <c r="F8" s="10">
-        <v>44781</v>
-      </c>
-      <c r="G8" s="10">
-        <v>44791</v>
-      </c>
-      <c r="H8" s="10">
-        <v>44806</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.2122</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.36820000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="C9" s="7">
-        <v>130000</v>
-      </c>
-      <c r="D9" s="9">
-        <f>B9*C9</f>
-        <v>29900</v>
-      </c>
-      <c r="E9" s="17">
-        <f>D9</f>
-        <v>29900</v>
-      </c>
-      <c r="F9" s="10">
-        <v>44782</v>
-      </c>
-      <c r="G9" s="10">
-        <v>44792</v>
-      </c>
-      <c r="H9" s="10">
-        <v>44810</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.25940000000000002</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.48149999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D10" s="9">
-        <f>B10*C10</f>
-        <v>1500</v>
-      </c>
-      <c r="E10" s="17">
-        <f>D10</f>
-        <v>1500</v>
-      </c>
-      <c r="F10" s="10">
-        <v>44781</v>
-      </c>
-      <c r="G10" s="10">
-        <v>44792</v>
-      </c>
-      <c r="H10" s="10">
-        <v>44806</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="13">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C11" s="7">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="9">
-        <f>B11*C11</f>
-        <v>2100</v>
-      </c>
-      <c r="E11" s="17">
-        <f>D11*0.9</f>
-        <v>1890</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10">
-        <v>44795</v>
-      </c>
-      <c r="H11" s="10">
-        <v>44810</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="15">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D12" s="9">
-        <f>B12*C12</f>
-        <v>15000</v>
-      </c>
-      <c r="E12" s="17">
-        <v>14085</v>
-      </c>
-      <c r="F12" s="10">
-        <v>44782</v>
-      </c>
-      <c r="G12" s="10">
-        <v>44795</v>
-      </c>
-      <c r="H12" s="10">
-        <v>44813</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7500</v>
-      </c>
-      <c r="D13" s="9">
-        <f>B13*C13</f>
-        <v>1350</v>
-      </c>
-      <c r="E13" s="17">
-        <f>D13*0.9</f>
-        <v>1215</v>
-      </c>
-      <c r="F13" s="10">
-        <v>44781</v>
-      </c>
-      <c r="G13" s="10">
-        <v>44795</v>
-      </c>
-      <c r="H13" s="10">
-        <v>44810</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0.18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>18000</v>
-      </c>
-      <c r="D14" s="9">
-        <f>B14*C14</f>
-        <v>3240</v>
-      </c>
-      <c r="E14" s="17">
-        <f>D14*0.9</f>
-        <v>2916</v>
-      </c>
-      <c r="F14" s="10">
-        <v>44781</v>
-      </c>
-      <c r="G14" s="10">
-        <v>44795</v>
-      </c>
-      <c r="H14" s="10">
-        <v>44809</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>27000</v>
-      </c>
-      <c r="D15" s="9">
-        <f>B15*C15</f>
-        <v>1890.0000000000002</v>
-      </c>
-      <c r="E15" s="17">
-        <f>D15</f>
-        <v>1890.0000000000002</v>
-      </c>
-      <c r="F15" s="10">
-        <v>44782</v>
-      </c>
-      <c r="G15" s="10">
-        <v>44796</v>
-      </c>
-      <c r="H15" s="10">
-        <v>44811</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>22500</v>
-      </c>
-      <c r="D16" s="9">
-        <f>B16*C16</f>
-        <v>22500</v>
-      </c>
-      <c r="E16" s="17">
-        <v>20587.5</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="10">
-        <v>44796</v>
-      </c>
-      <c r="H16" s="10">
-        <v>44812</v>
-      </c>
-      <c r="I16" s="5">
-        <v>3.28</v>
-      </c>
-      <c r="J16" s="5">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D17" s="9">
-        <f>B17*C17</f>
-        <v>2100</v>
-      </c>
-      <c r="E17" s="17">
-        <f>D17*0.9</f>
-        <v>1890</v>
-      </c>
-      <c r="F17" s="10">
-        <v>44769</v>
-      </c>
-      <c r="G17" s="10">
-        <v>44797</v>
-      </c>
-      <c r="H17" s="10">
-        <v>44813</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="C18" s="7">
-        <v>48000</v>
-      </c>
-      <c r="D18" s="9">
-        <f>B18*C18</f>
-        <v>7200</v>
-      </c>
-      <c r="E18" s="17">
-        <f>D18*0.9</f>
-        <v>6480</v>
-      </c>
-      <c r="F18" s="10">
-        <v>44784</v>
-      </c>
-      <c r="G18" s="10">
-        <v>44797</v>
-      </c>
-      <c r="H18" s="10">
-        <v>44813</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0.12692000000000001</v>
-      </c>
-      <c r="C19" s="7">
-        <v>105000</v>
-      </c>
-      <c r="D19" s="9">
-        <f>B19*C19</f>
-        <v>13326.6</v>
-      </c>
-      <c r="E19" s="17">
-        <v>12060.51</v>
-      </c>
-      <c r="F19" s="10">
-        <v>44784</v>
-      </c>
-      <c r="G19" s="10">
-        <v>44798</v>
-      </c>
-      <c r="H19" s="10">
-        <v>44813</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.15229999999999999</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="9">
-        <f>B20*C20</f>
-        <v>2010.0000000000002</v>
-      </c>
-      <c r="E20" s="17">
-        <f>D20*0.9</f>
-        <v>1809.0000000000002</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="10">
-        <v>44799</v>
-      </c>
-      <c r="H20" s="10">
-        <v>44818</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>45000</v>
-      </c>
-      <c r="D21" s="9">
-        <f>B21*C21</f>
-        <v>6750</v>
-      </c>
-      <c r="E21" s="17">
-        <f>D21*0.9</f>
-        <v>6075</v>
-      </c>
-      <c r="F21" s="10">
-        <v>44788</v>
-      </c>
-      <c r="G21" s="10">
-        <v>44799</v>
-      </c>
-      <c r="H21" s="10">
-        <v>44817</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.3473</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.68369999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2400</v>
-      </c>
-      <c r="D22" s="9">
-        <f>B22*C22</f>
-        <v>960</v>
-      </c>
-      <c r="E22" s="17">
-        <f>D22*0.9</f>
-        <v>864</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="10">
-        <v>44803</v>
-      </c>
-      <c r="H22" s="10">
-        <v>44819</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="J22" s="5">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="C23" s="7">
-        <v>21000</v>
-      </c>
-      <c r="D23" s="9">
-        <f>B23*C23</f>
-        <v>8400</v>
-      </c>
-      <c r="E23" s="17">
-        <f>D23*0.9</f>
-        <v>7560</v>
-      </c>
-      <c r="F23" s="10">
-        <v>44788</v>
-      </c>
-      <c r="G23" s="10">
-        <v>44804</v>
-      </c>
-      <c r="H23" s="10">
-        <v>44818</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="C24" s="7">
-        <v>12000</v>
-      </c>
-      <c r="D24" s="9">
-        <f>B24*C24</f>
-        <v>9000</v>
-      </c>
-      <c r="E24" s="17">
-        <f>D24*0.9</f>
-        <v>8100</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="10">
-        <v>44806</v>
-      </c>
-      <c r="H24" s="10">
-        <v>44825</v>
-      </c>
-      <c r="I24" s="5">
-        <v>5.58</v>
-      </c>
-      <c r="J24" s="5">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4500</v>
-      </c>
-      <c r="D25" s="9">
-        <f>B25*C25</f>
-        <v>5850</v>
-      </c>
-      <c r="E25" s="9">
-        <f>D25*0.9</f>
-        <v>5265</v>
-      </c>
-      <c r="F25" s="3">
-        <v>44832</v>
-      </c>
-      <c r="G25" s="3">
-        <v>44832</v>
-      </c>
-      <c r="H25" s="3">
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="E26" s="9">
-        <f>SUM(E2:E25)</f>
-        <v>177312.61000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
-    <sortCondition ref="G2:G25"/>
-    <sortCondition ref="A2:A25"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E274F-D74C-49CB-A540-4A7990FF401E}">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1516,7 +614,874 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2*C2</f>
+        <v>2100</v>
+      </c>
+      <c r="E2" s="17">
+        <f>D2*0.9</f>
+        <v>1890</v>
+      </c>
+      <c r="F2" s="10">
+        <v>44769</v>
+      </c>
+      <c r="G2" s="10">
+        <v>44797</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44813</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="18" t="s">
         <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>21000</v>
+      </c>
+      <c r="D3" s="9">
+        <f>B3*C3</f>
+        <v>8400</v>
+      </c>
+      <c r="E3" s="17">
+        <f>D3*0.9</f>
+        <v>7560</v>
+      </c>
+      <c r="F3" s="10">
+        <v>44788</v>
+      </c>
+      <c r="G3" s="10">
+        <v>44804</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44818</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B4*C4</f>
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="E4" s="17">
+        <f>D4*0.9</f>
+        <v>1260.0000000000002</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44774</v>
+      </c>
+      <c r="G4" s="10">
+        <v>44790</v>
+      </c>
+      <c r="H4" s="10">
+        <v>44806</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>60000</v>
+      </c>
+      <c r="D5" s="9">
+        <f>B5*C5</f>
+        <v>2100</v>
+      </c>
+      <c r="E5" s="17">
+        <f>D5*0.9</f>
+        <v>1890</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10">
+        <v>44795</v>
+      </c>
+      <c r="H5" s="10">
+        <v>44810</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>40000</v>
+      </c>
+      <c r="D6" s="9">
+        <f>B6*C6</f>
+        <v>10400</v>
+      </c>
+      <c r="E6" s="17">
+        <f>D6</f>
+        <v>10400</v>
+      </c>
+      <c r="F6" s="10">
+        <v>44784</v>
+      </c>
+      <c r="G6" s="10">
+        <v>44789</v>
+      </c>
+      <c r="H6" s="10">
+        <v>44809</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="9">
+        <f>B7*C7</f>
+        <v>2010.0000000000002</v>
+      </c>
+      <c r="E7" s="17">
+        <f>D7*0.9</f>
+        <v>1809.0000000000002</v>
+      </c>
+      <c r="F7" s="10">
+        <v>44418</v>
+      </c>
+      <c r="G7" s="10">
+        <v>44799</v>
+      </c>
+      <c r="H7" s="10">
+        <v>44818</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2400</v>
+      </c>
+      <c r="D8" s="9">
+        <f>B8*C8</f>
+        <v>960</v>
+      </c>
+      <c r="E8" s="17">
+        <f>D8*0.9</f>
+        <v>864</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10">
+        <v>44803</v>
+      </c>
+      <c r="H8" s="10">
+        <v>44819</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>130000</v>
+      </c>
+      <c r="D9" s="9">
+        <f>B9*C9</f>
+        <v>29900</v>
+      </c>
+      <c r="E9" s="17">
+        <f>D9</f>
+        <v>29900</v>
+      </c>
+      <c r="F9" s="10">
+        <v>44782</v>
+      </c>
+      <c r="G9" s="10">
+        <v>44792</v>
+      </c>
+      <c r="H9" s="10">
+        <v>44810</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.48149999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D10" s="9">
+        <f>B10*C10</f>
+        <v>15000</v>
+      </c>
+      <c r="E10" s="17">
+        <v>14085</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44782</v>
+      </c>
+      <c r="G10" s="10">
+        <v>44795</v>
+      </c>
+      <c r="H10" s="10">
+        <v>44813</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7500</v>
+      </c>
+      <c r="D11" s="9">
+        <f>B11*C11</f>
+        <v>1350</v>
+      </c>
+      <c r="E11" s="17">
+        <f>D11*0.9</f>
+        <v>1215</v>
+      </c>
+      <c r="F11" s="10">
+        <v>44781</v>
+      </c>
+      <c r="G11" s="10">
+        <v>44795</v>
+      </c>
+      <c r="H11" s="10">
+        <v>44810</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>27000</v>
+      </c>
+      <c r="D12" s="9">
+        <f>B12*C12</f>
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="E12" s="17">
+        <f>D12</f>
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="F12" s="10">
+        <v>44782</v>
+      </c>
+      <c r="G12" s="10">
+        <v>44796</v>
+      </c>
+      <c r="H12" s="10">
+        <v>44811</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45000</v>
+      </c>
+      <c r="D13" s="9">
+        <f>B13*C13</f>
+        <v>6750</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D13*0.9</f>
+        <v>6075</v>
+      </c>
+      <c r="F13" s="10">
+        <v>44788</v>
+      </c>
+      <c r="G13" s="10">
+        <v>44799</v>
+      </c>
+      <c r="H13" s="10">
+        <v>44817</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.3473</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.68369999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4500</v>
+      </c>
+      <c r="D14" s="9">
+        <f>B14*C14</f>
+        <v>5850</v>
+      </c>
+      <c r="E14" s="9">
+        <f>D14*0.9</f>
+        <v>5265</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44832</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44832</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="15">
+        <v>4.25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>600</v>
+      </c>
+      <c r="D15" s="9">
+        <f>B15*C15</f>
+        <v>2550</v>
+      </c>
+      <c r="E15" s="17">
+        <f>D15*0.9</f>
+        <v>2295</v>
+      </c>
+      <c r="F15" s="10">
+        <v>44774</v>
+      </c>
+      <c r="G15" s="10">
+        <v>44788</v>
+      </c>
+      <c r="H15" s="10">
+        <v>44799</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5.28</v>
+      </c>
+      <c r="J15" s="11">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12000</v>
+      </c>
+      <c r="D16" s="9">
+        <f>B16*C16</f>
+        <v>9000</v>
+      </c>
+      <c r="E16" s="17">
+        <f>D16*0.9</f>
+        <v>8100</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="10">
+        <v>44806</v>
+      </c>
+      <c r="H16" s="10">
+        <v>44825</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5.58</v>
+      </c>
+      <c r="J16" s="5">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1.75</v>
+      </c>
+      <c r="C17" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D17" s="9">
+        <f>B17*C17</f>
+        <v>26250</v>
+      </c>
+      <c r="E17" s="17">
+        <f>D17*0.9</f>
+        <v>23625</v>
+      </c>
+      <c r="F17" s="10">
+        <v>44778</v>
+      </c>
+      <c r="G17" s="10">
+        <v>44791</v>
+      </c>
+      <c r="H17" s="10">
+        <v>44806</v>
+      </c>
+      <c r="I17" s="5">
+        <v>3.85</v>
+      </c>
+      <c r="J17" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="13">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>900</v>
+      </c>
+      <c r="D18" s="9">
+        <f>B18*C18</f>
+        <v>5400</v>
+      </c>
+      <c r="E18" s="17">
+        <f>D18*0.9</f>
+        <v>4860</v>
+      </c>
+      <c r="F18" s="10">
+        <v>44769</v>
+      </c>
+      <c r="G18" s="10">
+        <v>44783</v>
+      </c>
+      <c r="H18" s="10">
+        <v>44799</v>
+      </c>
+      <c r="I18" s="11">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J18" s="11">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.12692000000000001</v>
+      </c>
+      <c r="C19" s="7">
+        <v>105000</v>
+      </c>
+      <c r="D19" s="9">
+        <f>B19*C19</f>
+        <v>13326.6</v>
+      </c>
+      <c r="E19" s="17">
+        <v>12060.51</v>
+      </c>
+      <c r="F19" s="10">
+        <v>44784</v>
+      </c>
+      <c r="G19" s="10">
+        <v>44798</v>
+      </c>
+      <c r="H19" s="10">
+        <v>44813</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>22500</v>
+      </c>
+      <c r="D20" s="9">
+        <f>B20*C20</f>
+        <v>22500</v>
+      </c>
+      <c r="E20" s="17">
+        <v>20587.5</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10">
+        <v>44796</v>
+      </c>
+      <c r="H20" s="10">
+        <v>44812</v>
+      </c>
+      <c r="I20" s="5">
+        <v>3.28</v>
+      </c>
+      <c r="J20" s="5">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="C21" s="7">
+        <v>18000</v>
+      </c>
+      <c r="D21" s="9">
+        <f>B21*C21</f>
+        <v>3240</v>
+      </c>
+      <c r="E21" s="17">
+        <f>D21*0.9</f>
+        <v>2916</v>
+      </c>
+      <c r="F21" s="10">
+        <v>44781</v>
+      </c>
+      <c r="G21" s="10">
+        <v>44795</v>
+      </c>
+      <c r="H21" s="10">
+        <v>44809</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="C22" s="7">
+        <v>48000</v>
+      </c>
+      <c r="D22" s="9">
+        <f>B22*C22</f>
+        <v>7200</v>
+      </c>
+      <c r="E22" s="17">
+        <f>D22*0.9</f>
+        <v>6480</v>
+      </c>
+      <c r="F22" s="10">
+        <v>44784</v>
+      </c>
+      <c r="G22" s="10">
+        <v>44797</v>
+      </c>
+      <c r="H22" s="10">
+        <v>44813</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D23" s="9">
+        <f>B23*C23</f>
+        <v>1500</v>
+      </c>
+      <c r="E23" s="17">
+        <f>D23</f>
+        <v>1500</v>
+      </c>
+      <c r="F23" s="10">
+        <v>44781</v>
+      </c>
+      <c r="G23" s="10">
+        <v>44792</v>
+      </c>
+      <c r="H23" s="10">
+        <v>44806</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="C24" s="7">
+        <v>40000</v>
+      </c>
+      <c r="D24" s="9">
+        <f>B24*C24</f>
+        <v>6223.9999999999991</v>
+      </c>
+      <c r="E24" s="17">
+        <f>D24*0.9</f>
+        <v>5601.5999999999995</v>
+      </c>
+      <c r="F24" s="10">
+        <v>44781</v>
+      </c>
+      <c r="G24" s="10">
+        <v>44791</v>
+      </c>
+      <c r="H24" s="10">
+        <v>44823</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.192</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D25" s="9">
+        <f>B25*C25</f>
+        <v>5760</v>
+      </c>
+      <c r="E25" s="17">
+        <f>D25*0.9</f>
+        <v>5184</v>
+      </c>
+      <c r="F25" s="10">
+        <v>44781</v>
+      </c>
+      <c r="G25" s="10">
+        <v>44791</v>
+      </c>
+      <c r="H25" s="10">
+        <v>44806</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.2122</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.36820000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="E26" s="9">
+        <f>SUM(E2:E25)</f>
+        <v>177312.61000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E274F-D74C-49CB-A540-4A7990FF401E}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="15">
         <v>4.25</v>
@@ -1550,7 +1515,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B3" s="13">
         <v>6</v>
@@ -1584,7 +1549,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="16">
         <v>0.28000000000000003</v>
@@ -1614,7 +1579,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B5" s="15">
         <v>1.75</v>
@@ -1648,7 +1613,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B6" s="16">
         <v>0.1</v>
@@ -1682,7 +1647,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B7" s="15">
         <v>0.192</v>
@@ -1716,7 +1681,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="14">
         <v>0.26</v>
@@ -1750,7 +1715,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" s="14">
         <v>0.18</v>
@@ -1784,7 +1749,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10" s="13">
         <v>3.5000000000000003E-2</v>
@@ -1801,7 +1766,7 @@
         <v>1890</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" s="10">
         <v>44795</v>
@@ -1818,7 +1783,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="13">
         <v>0.23</v>
@@ -1852,7 +1817,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="13">
         <v>0.18</v>
@@ -1886,7 +1851,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <v>7.0000000000000007E-2</v>
@@ -1920,7 +1885,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
@@ -1936,7 +1901,7 @@
         <v>20587.5</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14" s="10">
         <v>44796</v>
@@ -1953,7 +1918,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B15" s="13">
         <v>7.0000000000000007E-2</v>
@@ -1987,7 +1952,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
@@ -2053,7 +2018,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" s="13">
         <v>0.15</v>
@@ -2087,7 +2052,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" s="15">
         <v>0.15</v>
@@ -2121,7 +2086,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="18" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B20" s="15">
         <v>0.4</v>
@@ -2155,7 +2120,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="18" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B21" s="14">
         <v>0.20100000000000001</v>
@@ -2172,7 +2137,7 @@
         <v>1809.0000000000002</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G21" s="10">
         <v>44799</v>
@@ -2189,7 +2154,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="18" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B22" s="14">
         <v>0.4</v>
@@ -2206,7 +2171,7 @@
         <v>864</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G22" s="10">
         <v>44803</v>
@@ -2223,7 +2188,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B23" s="13">
         <v>0.15559999999999999</v>
@@ -2257,7 +2222,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B24" s="13">
         <v>0.75</v>
@@ -2274,7 +2239,7 @@
         <v>8100</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G24" s="10">
         <v>44806</v>
@@ -2291,7 +2256,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B25" s="15">
         <v>1.3</v>
